--- a/biology/Médecine/Hormone_stéroïdienne/Hormone_stéroïdienne.xlsx
+++ b/biology/Médecine/Hormone_stéroïdienne/Hormone_stéroïdienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hormone_st%C3%A9ro%C3%AFdienne</t>
+          <t>Hormone_stéroïdienne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les hormones stéroïdiennes[1] sont des stéroïdes se comportant comme des hormones. On peut les regrouper en cinq catégories selon leurs récepteurs : les glucocorticoïdes, les minéralocorticoïdes, les androgènes, les œstrogènes et les progestatifs. Les dérivés de la vitamine D forment un sixième système hormonal proche des précédents, mais techniquement parlant il s'agit de stérols plutôt que de stéroïdes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les hormones stéroïdiennes sont des stéroïdes se comportant comme des hormones. On peut les regrouper en cinq catégories selon leurs récepteurs : les glucocorticoïdes, les minéralocorticoïdes, les androgènes, les œstrogènes et les progestatifs. Les dérivés de la vitamine D forment un sixième système hormonal proche des précédents, mais techniquement parlant il s'agit de stérols plutôt que de stéroïdes.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hormone_st%C3%A9ro%C3%AFdienne</t>
+          <t>Hormone_stéroïdienne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Principales hormones stéroïdiennes humaines naturelles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les glucocorticoïdes
 le cortisol
@@ -539,7 +553,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hormone_st%C3%A9ro%C3%AFdienne</t>
+          <t>Hormone_stéroïdienne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,7 +571,9 @@
           <t>Stéroïdogenèse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les hormones stéroïdiennes sont toutes synthétisées à partir du cholestérol dans un processus appelé stéroïdogenèse.
 </t>
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hormone_st%C3%A9ro%C3%AFdienne</t>
+          <t>Hormone_stéroïdienne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,7 +604,9 @@
           <t>Principales hormones à base de stérols</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les dérivés de la vitamine D
 le calcitriol (1,25 (OH)2 Vitamine D3)</t>
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hormone_st%C3%A9ro%C3%AFdienne</t>
+          <t>Hormone_stéroïdienne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,7 +637,9 @@
           <t>Autres hormones stéroïdiennes dans les organismes vivants</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ecdysone et les ecdystéroïdes (hormones de mue des Arthropodes), que l'on retrouve également en quantités importantes dans de nombreuses plantes (phytoecdystéroïdes).
 Les brassinostéroïdes (hormones de développement des plantes)
@@ -633,7 +653,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hormone_st%C3%A9ro%C3%AFdienne</t>
+          <t>Hormone_stéroïdienne</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -651,7 +671,9 @@
           <t>Exemples d'hormones stéroïdiennes de synthèse</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Quelques exemples d'hormones stéroïdiennes de synthèse :
 Glucocorticoïdes : la prednisone, la dexaméthasone, la triamcinolone
